--- a/testData/case/stage_fenqi.xlsx
+++ b/testData/case/stage_fenqi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -174,9 +174,12 @@
 "site_id": 1,
 "timestamp":"",
 "user_id":23,
-"orders_id":1
+"orders_id":121
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数格式错误</t>
   </si>
 </sst>
 </file>
@@ -607,7 +610,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -747,7 +750,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -857,7 +860,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -921,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="8">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/testData/case/stage_fenqi.xlsx
+++ b/testData/case/stage_fenqi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="staging_lists" sheetId="10" r:id="rId1"/>
@@ -143,9 +143,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>合同状态不可申请分期</t>
-  </si>
-  <si>
     <t>{
 "source": 4,
 "version": "2.0",
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>参数格式错误</t>
+  </si>
+  <si>
+    <t>签约记录不存在</t>
   </si>
 </sst>
 </file>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -748,116 +748,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="24.625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1000</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -903,10 +793,10 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -915,10 +805,120 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>2101</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/testData/case/stage_fenqi.xlsx
+++ b/testData/case/stage_fenqi.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="staging_lists" sheetId="10" r:id="rId1"/>
     <sheet name="staging_applyforstaging" sheetId="8" r:id="rId2"/>
     <sheet name="staging_user_apply" sheetId="33" r:id="rId3"/>
+    <sheet name="act_recommend_sitelist" sheetId="34" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
   <si>
     <t>CaseName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -180,6 +181,33 @@
   </si>
   <si>
     <t>签约记录不存在</t>
+  </si>
+  <si>
+    <t>/act/recommend/siteList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_recommend_sitelist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关-H5相关-活动列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.0",
+"site_id": 1,
+"timestamp":"",
+"user_id":23,
+"city_id":1
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -749,116 +777,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="24.625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>2101</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
@@ -903,6 +821,116 @@
     </row>
     <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>2101</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -928,6 +956,88 @@
       </c>
       <c r="I2" s="9" t="s">
         <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
